--- a/biology/Zoologie/Calileptoneta/Calileptoneta.xlsx
+++ b/biology/Zoologie/Calileptoneta/Calileptoneta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calileptoneta est un genre d'araignées aranéomorphes de la famille des Leptonetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calileptoneta est un genre d'araignées aranéomorphes de la famille des Leptonetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis[1]. Elles se rencontrent en Californie et en Oregon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis. Elles se rencontrent en Californie et en Oregon.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 14.5, 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 14.5, 2014) :
 Calileptoneta briggsi Ledford, 2004
 Calileptoneta californica (Banks, 1904)
 Calileptoneta cokendolpheri Ledford, 2004
@@ -581,7 +597,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est nommé en référence à sa distribution, il est composé de : Cali[fornie] et Leptoneta.
 </t>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Platnick, 1986 : On the tibial and patellar glands, relationships, and American genera of the spider family Leptonetidae (Arachnida, Araneae). American Museum Novitates, no 2855, p. 1-16 (texte intégral).</t>
         </is>
